--- a/contactos_dante_propiedades.xlsx
+++ b/contactos_dante_propiedades.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Contactos" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,7 +49,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -415,17 +414,15 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="3" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -458,22 +455,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-10-06 17:45:47</t>
+          <t>2025-10-07 20:56:03</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RAMONA MARTINEZ</t>
+          <t>RAMONA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>rm</t>
+          <t>DDDDDDD</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>354534534</t>
+          <t>1151511579</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -485,17 +482,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-10-06 17:47:07</t>
+          <t>2025-10-07 21:03:33</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MARIA ROSA ARONA</t>
+          <t>uf000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>mra</t>
+          <t>GITHUB</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -512,22 +509,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-10-06 17:59:25</t>
+          <t>2025-10-07 21:03:57</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MARIA ROSA ARONA</t>
+          <t>uf003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MRA</t>
+          <t>propia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0111551511579</t>
+          <t>01151511579</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -539,22 +536,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-10-06 18:09:29</t>
+          <t>2025-10-07 21:04:24</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ARTURO</t>
+          <t>uf004</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>XXXXX</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3434343</t>
+          <t>0111551511579</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -566,22 +563,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-10-06 18:16:47</t>
+          <t>2025-10-07 21:04:49</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ARTURO</t>
+          <t>uf009</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>propia</t>
+          <t>GITHUB</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11111111</t>
+          <t>1136809319</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -593,22 +590,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-10-06 18:20:22</t>
+          <t>2025-10-07 21:05:09</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>UF004</t>
+          <t>uf012</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>GITHUB</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12121212</t>
+          <t>1151511579</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -620,22 +617,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-10-06 18:37:07</t>
+          <t>2025-10-08 10:56:18</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>UF09</t>
+          <t>MARIA ROSA ARONA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>XXXXX</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>232324455</t>
+          <t>1151511579</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -647,22 +644,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-10-06 18:40:52</t>
+          <t>2025-10-08 11:18:55</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>UF12</t>
+          <t>ARTURO</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>WEREE</t>
+          <t>GITHUB</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4566666</t>
+          <t>0111551511579</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
